--- a/HTML-teszt/Ellenőrzés (HTML).xlsx
+++ b/HTML-teszt/Ellenőrzés (HTML).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gazdag.zsolt\Desktop\HTML-teszt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3466DF-A6B1-4687-94AB-1520E395AA95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F159E67F-BADA-44CE-B94A-6A51A698F1E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
   <si>
     <t>Tesztelő neve:</t>
   </si>
@@ -495,9 +495,6 @@
     <t>Alkalmazott technológia</t>
   </si>
   <si>
-    <t>Itt írja le melyiket!</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Milyen módszerrel próbálta a tartalmat elrendezni?
 </t>
@@ -549,9 +546,6 @@
     <t>Talált megjelenési hibát a váltások során?</t>
   </si>
   <si>
-    <t>#1 Ha van hiba a vonatkozó részben, akkor itt ismertesse!</t>
-  </si>
-  <si>
     <t>#2 Ha van hiba a vonatkozó részben, akkor itt ismertesse!</t>
   </si>
   <si>
@@ -568,13 +562,31 @@
   </si>
   <si>
     <t>Meglévő dunkciók kiegészítése, javítása</t>
+  </si>
+  <si>
+    <t>Gazdag Zsolt</t>
+  </si>
+  <si>
+    <t>Nem reszponzív</t>
+  </si>
+  <si>
+    <t>Div, Form, Table</t>
+  </si>
+  <si>
+    <t>Div, table, Form</t>
+  </si>
+  <si>
+    <t>B4338</t>
+  </si>
+  <si>
+    <t>flexbox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,14 +642,6 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
@@ -847,7 +851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -865,17 +869,13 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -1222,32 +1222,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="9" customWidth="1"/>
+    <col min="1" max="1" width="16" style="8" customWidth="1"/>
     <col min="2" max="2" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
       <c r="C2" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="1"/>
@@ -1257,557 +1261,583 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
     </row>
     <row r="25" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
     </row>
     <row r="26" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="27"/>
+    </row>
+    <row r="31" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="29"/>
+    </row>
+    <row r="32" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="27"/>
+    </row>
+    <row r="33" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="28"/>
-    </row>
-    <row r="31" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-    </row>
-    <row r="32" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="28" t="s">
+      <c r="C33" s="27"/>
+    </row>
+    <row r="34" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="28"/>
-    </row>
-    <row r="33" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="28"/>
-    </row>
-    <row r="34" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="28"/>
+      <c r="C34" s="27"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="26"/>
+    </row>
+    <row r="39" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="21"/>
+    </row>
+    <row r="40" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="26"/>
+    </row>
+    <row r="41" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="26"/>
+    </row>
+    <row r="43" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="B43" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="26"/>
+    </row>
+    <row r="45" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="26"/>
+    </row>
+    <row r="46" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="26"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+    </row>
+    <row r="49" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
+      <c r="B50" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="26"/>
+    </row>
+    <row r="51" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="16"/>
+      <c r="B52" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="26"/>
+    </row>
+    <row r="53" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
+      <c r="B54" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="26"/>
+    </row>
+    <row r="55" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="16"/>
+      <c r="B56" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="26"/>
+    </row>
+    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="21"/>
+    </row>
+    <row r="58" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="26"/>
+    </row>
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="26" t="s">
+    <row r="60" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="27"/>
-    </row>
-    <row r="39" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="22"/>
-    </row>
-    <row r="40" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="27"/>
-    </row>
-    <row r="41" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="27"/>
-    </row>
-    <row r="43" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="22"/>
-    </row>
-    <row r="44" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="27"/>
-    </row>
-    <row r="45" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="27"/>
-    </row>
-    <row r="46" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="27"/>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-    </row>
-    <row r="49" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="27"/>
-    </row>
-    <row r="51" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="27"/>
-    </row>
-    <row r="53" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="27"/>
-    </row>
-    <row r="55" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="27"/>
-    </row>
-    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="22"/>
-    </row>
-    <row r="58" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="27"/>
-    </row>
-    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="27"/>
+      <c r="C60" s="26"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
     </row>
     <row r="64" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
     </row>
     <row r="65" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
     </row>
     <row r="66" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
+      <c r="B69" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="27"/>
     </row>
     <row r="70" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="30"/>
+      <c r="B70" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="29"/>
     </row>
     <row r="71" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
+      <c r="B71" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="27"/>
     </row>
     <row r="72" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
+      <c r="B72" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="27"/>
     </row>
     <row r="73" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
+      <c r="B73" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="27"/>
     </row>
     <row r="75" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="16"/>
+      <c r="B77" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="26"/>
+    </row>
+    <row r="78" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="21"/>
+    </row>
+    <row r="79" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="16"/>
+      <c r="B79" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="26"/>
+    </row>
+    <row r="80" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="16"/>
+      <c r="B81" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="26"/>
+    </row>
+    <row r="82" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="22"/>
-    </row>
-    <row r="77" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
-      <c r="B77" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" s="27"/>
-    </row>
-    <row r="78" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="22"/>
-    </row>
-    <row r="79" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
-      <c r="B79" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79" s="27"/>
-    </row>
-    <row r="80" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="22"/>
-    </row>
-    <row r="81" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="27"/>
-    </row>
-    <row r="82" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
+      <c r="B82" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="C82" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="26"/>
+    </row>
+    <row r="84" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
+      <c r="B84" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C82" s="22"/>
-    </row>
-    <row r="83" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="B83" s="26" t="s">
+      <c r="C84" s="26"/>
+    </row>
+    <row r="85" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="B85" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="27"/>
-    </row>
-    <row r="84" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
-      <c r="B84" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" s="27"/>
-    </row>
-    <row r="85" spans="1:3" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C85" s="27"/>
+      <c r="C85" s="26"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="EcFRlL8AFwHQ34OaxC7dH4ZIsHU6jNaSiY1XWCWxNRm5WIPhK/K2kLZ5y6bym8D61cZkF88sEcXn4I/pMb5imA==" saltValue="/BGzWz5hNCBKKgP9RY6FHw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -1855,7 +1885,7 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B65:C65"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
